--- a/VQC R work/Albuwell Data Sheets/Long_PFAS_Albuwell_Sample_Week_070325.xlsx
+++ b/VQC R work/Albuwell Data Sheets/Long_PFAS_Albuwell_Sample_Week_070325.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victoriaqc/Documents/GitHub/PFAS_met_cage/VQC R work/Albuwell Data Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB2E4E8-1B22-CF40-A821-31712567D122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A11FE35-317E-0844-A25D-33F12D598C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2100" windowWidth="28220" windowHeight="15200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -855,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1565,7 +1565,7 @@
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F36" s="1">
         <v>1</v>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F96" s="1">
         <v>2</v>
